--- a/branches/update-code-systems/ValueSet-vs-key-population-status.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-key-population-status.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,37 +106,37 @@
     <t>472986005</t>
   </si>
   <si>
-    <t>Sexually active with men (finding)</t>
+    <t>Sexually active with men</t>
   </si>
   <si>
     <t>159799000</t>
   </si>
   <si>
-    <t>Female prostitute (occupation)</t>
+    <t>Female prostitute</t>
   </si>
   <si>
     <t>159800001</t>
   </si>
   <si>
-    <t>Male prostitute (occupation)</t>
+    <t>Male prostitute</t>
   </si>
   <si>
     <t>228388006</t>
   </si>
   <si>
-    <t>Intravenous drug user (finding)</t>
+    <t>Intravenous drug user</t>
   </si>
   <si>
     <t>417284009</t>
   </si>
   <si>
-    <t>Current drug user (finding)</t>
+    <t>Current drug user</t>
   </si>
   <si>
     <t>407375002</t>
   </si>
   <si>
-    <t>Surgically transgendered transsexual (finding)</t>
+    <t>Surgically transgendered transsexual</t>
   </si>
   <si>
     <t/>

--- a/branches/update-code-systems/ValueSet-vs-key-population-status.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-key-population-status.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
